--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45534</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44637.65760416666</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45310</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45183</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45899.48846064815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45322</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44519</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>44481.68056712963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44265</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44431</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44573</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>44783.45521990741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44783.3771875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44529</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44550.35746527778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44630.61761574074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44594.49887731481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44392</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44297</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44615</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44615</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>44508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44462</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>44449.26315972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44433</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>44694</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44273</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44512</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>44512</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44889.64608796296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44300</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44431</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44512</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44783.45457175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44382</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44546.65344907407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44286</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44456</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44573</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44703.80895833333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>44343.50334490741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44869.83858796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>44546.65739583333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>44526.74181712963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>44474.32905092592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44623.2690162037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44686.59855324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44456</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44615.65287037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44615</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44522.40318287037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44456</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44881.56228009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44615</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44456</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44456</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44588.83569444445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44511</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44382</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44382</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44550.35263888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44550.35586805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44550.36349537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44817.71060185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44812</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44860</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44252.66797453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44392</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44622</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44719.42737268518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>45534</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>45758.3678125</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>45425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44693.84070601852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>45266</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>45267.2840162037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44559.48967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44817.66766203703</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44903</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>45483</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44900.43293981482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>45099.64145833333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>45099.70915509259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>45103</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>45643.81032407407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>45572.58230324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45721.59949074074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>45580.72895833333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44610</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45041</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45167.41329861111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45246</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45016.74270833333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>45737.44548611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44860</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45420</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45314</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44442</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>45103</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>45526.92292824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45335</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>45232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44476.55728009259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>45687.645</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>45603.85575231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>45884</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44636</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45170.43162037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>45811.56616898148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>45811.48039351852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45350.48810185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>44997</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>45146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45891</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45814.28092592592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45893.77959490741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45817.67849537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45818.41606481482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45897</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45637.44023148148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45068</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>45899.49072916667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45898.31863425926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>45204</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45904.69476851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>45786.6363425926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>45904.6984375</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>45904.70483796296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>45904.70866898148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45904.71075231482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>45232</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>45443.69244212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>45911.47576388889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45821.745625</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>45911.47094907407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45915.31939814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44453.59045138889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>45637.43695601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>45672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>45096.5971412037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44831.34840277778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>45623.84050925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>45919.49084490741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>45919.50083333333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44720.43766203704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45919.64902777778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>45918.50545138889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>45215.58049768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>45212.61490740741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>45359</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>45548.44391203704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>45183</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45925.33177083333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>45784.46083333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>45105</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45280.59799768519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>45336</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>45356.4206712963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>45581.39112268519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45930.60961805555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45930.59299768518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45838.57253472223</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>45930.32436342593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>45838.57292824074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>45930.60707175926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>45930.60347222222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>45930.61263888889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>45930.57609953704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>45930.57943287037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45930.60043981481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45931.30692129629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45103.66701388889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>45838.57185185186</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>45838.57230324074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44945.73666666666</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>45556.4603125</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44817.70091435185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>45841.51304398148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>45669.80903935185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>45937.48201388889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45937.48306712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>45937.48375</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>45937.48063657407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44783</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45526</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>45841.83203703703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45232.7922337963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45779.42442129629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>45258.70438657407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45846.58006944445</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>45847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>45740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>45821.30648148148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>45098.50954861111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>45460</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>45462.43706018518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>45614.48913194444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45855</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45855</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45855</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44249</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>45855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>45951</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>45944</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>45614.47459490741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>45473</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>45861.36361111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>45861.36568287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>45854.47040509259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>45006.5583449074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>45867.36799768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>45630.47453703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44900.43491898148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44900.44082175926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45608.27928240741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45740</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45665.81203703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45240</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45959.42767361111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45477</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45628.39364583333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45875.41504629629</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45576.71769675926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45282</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45474</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44300.63430555556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>45880</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>45965.50280092593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45965.66560185186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>45878.46230324074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>45121</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>45967.49229166667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45967.44065972222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45967.44800925926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45967.39920138889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45967.47391203704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45967.40876157407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45967.42209490741</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45967.38813657407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45967.50334490741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>45968.62002314815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45580.67303240741</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44900.43143518519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>45709.60859953704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45672</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45358</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45358</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45576.3666087963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45672</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45156.34189814814</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45539</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45979.47041666666</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44973</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>45981.57028935185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45232</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>45985.43508101852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45105</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>46021</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>45030.51758101852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>45469.60047453704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>45469.6058449074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45469.61131944445</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45469</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>44529</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>45362.30850694444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>44973</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44806</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>45596</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45352.79046296296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>45603.85266203704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>45603.85405092593</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44299</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44911.72645833333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45469</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>45530.35858796296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45443.6706712963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44630.63126157408</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45530</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44910</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45594.83465277778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>45951</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45096</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>46042.59101851852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>46042.61813657408</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>46042.65511574074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>46043.39690972222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>46044.619375</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>45414.57461805556</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>46002.48991898148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         <v>45392.84564814815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18787,7 +18787,7 @@
         <v>44552</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         <v>46006.72208333333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45469</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>44546.65107638889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>45764.5202662037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>45404.89270833333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>45048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44911.72277777778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44911.72387731481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>46051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>45000</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>45013</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>46013.46358796296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44685.40488425926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>45047</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>46041.57229166666</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>46055</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>45204.51583333333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>45469.61435185185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>45469.61974537037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45311.59244212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>46014.49818287037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>46014</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45147.74729166667</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45576.70123842593</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44930.78516203703</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44973</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>44454</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>44915.77621527778</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45614.48221064815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>45614.48385416667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>45614.48731481482</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44915.77934027778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44911.72984953703</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>44501.45686342593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>44972.59789351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44766.54820601852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>45594.82305555556</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45469</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45238.50130787037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45373.60101851852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>44865.91162037037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45070.91396990741</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>45155</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44900.43638888889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>44454</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>45225.86006944445</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45587</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45614.47771990741</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45614.47966435185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45007</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44985</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45257</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44900.38658564815</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45485.59770833333</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45160.52923611111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45714.57979166666</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44973</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44973</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>44302</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45744.32737268518</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45587</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44907</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45758.57554398148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45684.61820601852</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44262.82746527778</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>45334.52237268518</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44637.62238425926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45684.62246527777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45029</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45469</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45469</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45265.8140625</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44994.38266203704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45707.32996527778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45608.30641203704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44866</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44720</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45649</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>45205.35052083333</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>45181.79244212963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44630.62163194444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>45329.66890046297</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>45329</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45120</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45645.35217592592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45096</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45594.84241898148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45630.46780092592</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45258.65349537037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45041.47372685185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45187.73872685185</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45495.89418981481</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45495</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45226.47097222223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45090</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45183</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45265.83193287037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45265.83298611111</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>44531</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>45533.47017361111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>45752.56149305555</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>45547.64564814815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45779.42712962963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45779.69329861111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45608.32445601852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45784.45744212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45530.33131944444</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45790.54224537037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>45531.33550925926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45740.89940972222</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>45790.54076388889</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>45711.37755787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>45790.34878472222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>45680.47359953704</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>45728.35657407407</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45534</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44637.65760416666</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45310</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45183</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45899.48846064815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45322</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44519</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>44481.68056712963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44265</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44431</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44573</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>44783.45521990741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44783.3771875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44529</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44550.35746527778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44630.61761574074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44594.49887731481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44392</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44297</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44615</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44615</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>44508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44462</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>44449.26315972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44433</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>44694</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44273</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44512</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>44512</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44889.64608796296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44300</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44431</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44512</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44783.45457175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44382</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44546.65344907407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44286</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44456</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44573</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44703.80895833333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>44343.50334490741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44869.83858796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>44546.65739583333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>44526.74181712963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>44474.32905092592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44623.2690162037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44686.59855324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44456</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44615.65287037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44615</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44522.40318287037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44456</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44881.56228009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44615</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44456</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44456</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44588.83569444445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44511</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44382</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44382</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44550.35263888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44550.35586805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44550.36349537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44817.71060185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44812</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44860</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44252.66797453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44392</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44622</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44719.42737268518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>45534</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>45758.3678125</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>45425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44693.84070601852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>45266</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>45267.2840162037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44559.48967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44817.66766203703</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44903</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>45483</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44900.43293981482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>45099.64145833333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>45099.70915509259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>45103</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>45643.81032407407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>45572.58230324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45721.59949074074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>45580.72895833333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44610</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45041</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45167.41329861111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45246</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45016.74270833333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>45737.44548611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44860</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45420</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45314</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44442</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>45103</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>45526.92292824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45335</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>45232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44476.55728009259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>45687.645</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>45603.85575231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>45884</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44636</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45170.43162037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>45811.56616898148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>45811.48039351852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45350.48810185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>44997</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>45146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45891</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45814.28092592592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45893.77959490741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45817.67849537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45818.41606481482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45897</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45637.44023148148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45068</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>45899.49072916667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45898.31863425926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>45204</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45904.69476851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>45786.6363425926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>45904.6984375</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>45904.70483796296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>45904.70866898148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45904.71075231482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>45232</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>45443.69244212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>45911.47576388889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45821.745625</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>45911.47094907407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45915.31939814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44453.59045138889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>45637.43695601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>45672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>45096.5971412037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44831.34840277778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>45623.84050925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>45919.49084490741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>45919.50083333333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44720.43766203704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45919.64902777778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>45918.50545138889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>45215.58049768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>45212.61490740741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>45359</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>45548.44391203704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>45183</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45925.33177083333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>45784.46083333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>45105</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45280.59799768519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>45336</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>45356.4206712963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>45581.39112268519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45930.60961805555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45930.59299768518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45838.57253472223</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>45930.32436342593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>45838.57292824074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>45930.60707175926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>45930.60347222222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>45930.61263888889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>45930.57609953704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>45930.57943287037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45930.60043981481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45931.30692129629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45103.66701388889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>45838.57185185186</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>45838.57230324074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44945.73666666666</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>45556.4603125</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44817.70091435185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>45841.51304398148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>45669.80903935185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>45937.48201388889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45937.48306712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>45937.48375</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>45937.48063657407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44783</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45526</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>45841.83203703703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45232.7922337963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45779.42442129629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>45258.70438657407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45846.58006944445</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>45847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>45740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>45821.30648148148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>45098.50954861111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>45460</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>45462.43706018518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>45614.48913194444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45855</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45855</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45855</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44249</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>45855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>45951</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>45944</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>45614.47459490741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>45473</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>45861.36361111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>45861.36568287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>45854.47040509259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>45006.5583449074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>45867.36799768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>45630.47453703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44900.43491898148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44900.44082175926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45608.27928240741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45740</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45665.81203703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45240</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45959.42767361111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45477</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45628.39364583333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45875.41504629629</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45576.71769675926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45282</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45474</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44300.63430555556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>45880</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>45965.50280092593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45965.66560185186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>45878.46230324074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>45121</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>45967.49229166667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45967.44065972222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45967.44800925926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45967.39920138889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45967.47391203704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45967.40876157407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45967.42209490741</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45967.38813657407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45967.50334490741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>45968.62002314815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45580.67303240741</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44900.43143518519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>45709.60859953704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45672</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45358</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45358</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45576.3666087963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45672</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45156.34189814814</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45539</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45979.47041666666</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44973</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>45981.57028935185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45232</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>45985.43508101852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45105</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>46021</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>45030.51758101852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>45469.60047453704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>45469.6058449074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45469.61131944445</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45469</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>44529</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>45362.30850694444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>44973</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44806</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>45596</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45352.79046296296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>45603.85266203704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>45603.85405092593</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44299</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44911.72645833333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45469</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>45530.35858796296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45443.6706712963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44630.63126157408</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45530</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44910</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45594.83465277778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>45951</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45096</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>46042.59101851852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>46042.61813657408</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>46042.65511574074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>46043.39690972222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>46044.619375</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>45414.57461805556</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>46002.48991898148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         <v>45392.84564814815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18787,7 +18787,7 @@
         <v>44552</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         <v>46006.72208333333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45469</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>44546.65107638889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>45764.5202662037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>45404.89270833333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>45048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44911.72277777778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44911.72387731481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>46051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>45000</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>45013</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>46013.46358796296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44685.40488425926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>45047</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>46041.57229166666</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>46055</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>45204.51583333333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>45469.61435185185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>45469.61974537037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45311.59244212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>46014.49818287037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>46014</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44958</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45147.74729166667</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45576.70123842593</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44930.78516203703</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44973</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>44454</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>44915.77621527778</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45614.48221064815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>45614.48385416667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>45614.48731481482</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44915.77934027778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44911.72984953703</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>44501.45686342593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>44972.59789351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44766.54820601852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>45594.82305555556</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45469</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45238.50130787037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45373.60101851852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>44865.91162037037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45070.91396990741</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>45155</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44900.43638888889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>44454</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>45225.86006944445</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45587</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45614.47771990741</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45614.47966435185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45007</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44985</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45257</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44900.38658564815</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45485.59770833333</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45160.52923611111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45714.57979166666</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44973</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44973</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>44302</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45744.32737268518</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45587</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44907</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45758.57554398148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45684.61820601852</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44262.82746527778</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>45334.52237268518</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44637.62238425926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45684.62246527777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45029</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45469</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45469</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44902</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45265.8140625</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44994.38266203704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45707.32996527778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45608.30641203704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44866</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44720</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45649</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>45205.35052083333</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>45181.79244212963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44630.62163194444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>45329.66890046297</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>45329</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45120</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45645.35217592592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45096</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45594.84241898148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45630.46780092592</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45258.65349537037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45041.47372685185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45187.73872685185</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45495.89418981481</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45495</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45226.47097222223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45090</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45183</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45265.83193287037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45265.83298611111</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>44531</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>45533.47017361111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>45752.56149305555</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>45547.64564814815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45779.42712962963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45779.69329861111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45608.32445601852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45784.45744212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45530.33131944444</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45790.54224537037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>45531.33550925926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45740.89940972222</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>45790.54076388889</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>45711.37755787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>45790.34878472222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>45680.47359953704</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>45728.35657407407</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45534</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44637.65760416666</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45310</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45183</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45899.48846064815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45322</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44519</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>44265</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44783.45521990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44783.3771875</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44481.68056712963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44529</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44550.35746527778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44594.49887731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44630.61761574074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44392</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44615</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44615</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>44508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44462</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>44449.26315972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44433</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>44694</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44273</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44512</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>44512</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44889.64608796296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44300</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44431</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44512</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44783.45457175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44382</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44546.65344907407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44286</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44456</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44573</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44703.80895833333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>44613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44869.83858796296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44343.50334490741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>44526.74181712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>44546.65739583333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>44615</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44474.32905092592</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44623.2690162037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44686.59855324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44456</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44615.65287037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44615</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44522.40318287037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44383</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44456</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44881.56228009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44615</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44456</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44456</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44588.83569444445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44511</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44382</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44382</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44550.35263888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44550.35586805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44550.36349537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44817.71060185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44812</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44860</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44252.66797453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44392</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44622</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44719.42737268518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>45534</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>45425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44693.84070601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>45758.3678125</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44559.48967592593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>45483</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44900.43293981482</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44817.66766203703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45099.64145833333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>45103</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>45099.70915509259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>45572.58230324074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45643.81032407407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45266</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45267.2840162037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45721.59949074074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>45580.72895833333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44610</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45041</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45016.74270833333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45167.41329861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>45246</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>44860</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45314</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45420</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45526.92292824074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44442</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>45335</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45103</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>44476.55728009259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45687.645</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44636</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>45603.85575231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>45737.44548611111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>45146</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>45817.67849537037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>45818.41606481482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>45637.44023148148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>45884</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>45068</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>45786.6363425926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45811.56616898148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45204</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45821.745625</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45232</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>45443.69244212963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>45891</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>45096.5971412037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>45893.77959490741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>44453.59045138889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45897</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45637.43695601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>45672</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>45899.49072916667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>45784.46083333333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>45898.31863425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>44831.34840277778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>45623.84050925926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44720.43766203704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>45838.57253472223</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>45838.57292824074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45904.69476851852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>45904.6984375</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>45904.70483796296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45904.70866898148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>45904.71075231482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>45838.57185185186</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>45838.57230324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>45215.58049768519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>45212.61490740741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>45359</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>45548.44391203704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>45183</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45841.51304398148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>45911.47576388889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>45105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>45911.47094907407</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45280.59799768519</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>45915.31939814815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>45336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>45356.4206712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45841.83203703703</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>45779.42442129629</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45669</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>45258.70438657407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>45846.58006944445</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>45847</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45740</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45821.30648148148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45581.39112268519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45460</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45919.49084490741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45919.50083333333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45919.64902777778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>45855</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45855</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45103.66701388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45855</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>45918.50545138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44945.73666666666</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45556.4603125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45473</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45861.36361111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45861.36568287037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45854.47040509259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44817.70091435185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45925.33177083333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45867.36799768519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45669.80903935185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44783</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>45740</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>45930.60961805555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>45526</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>45930.59299768518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>45930.32436342593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>45930.60707175926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45930.60347222222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>45930.61263888889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>45930.57609953704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>45930.57943287037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45930.60043981481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45931.30692129629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45232.7922337963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>45098.50954861111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45875.41504629629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>45462.43706018518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>45880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>45614.48913194444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>45878.46230324074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44249</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45614.47459490741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45882</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45006.5583449074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45630.47453703704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44900.43491898148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44900.44082175926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45937.48201388889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45937.48306712963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45937.48375</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45937.48063657407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45672</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45608.27928240741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45665.81203703704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45672</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45240</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>45477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>45628.39364583333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>45951</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>45944</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>45576.71769675926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>45282</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>45474</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44300.63430555556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45121</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>45580.67303240741</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>45959.42767361111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44900.43143518519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45709.60859953704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45358</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>45358</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>45576.3666087963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45156.34189814814</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>45965.50280092593</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45965.66560185186</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>45539</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45967.49229166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44580</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>45967.44065972222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45967.44800925926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45967.39920138889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>45967.47391203704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>45967.40876157407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45967.42209490741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         <v>45967.38813657407</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>45967.50334490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45232</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45968.62002314815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>45105</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>45030.51758101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>45979.47041666666</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45981.57028935185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>45469.60047453704</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>45469.6058449074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45469.61131944445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>45469</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44529</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45362.30850694444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44973</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44806</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45596</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45352.79046296296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>45985.43508101852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>45603.85266203704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>45603.85405092593</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>44299</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44911.72645833333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45469</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45530.35858796296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>45443.6706712963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44630.63126157408</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>45530</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44910</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45594.83465277778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>45096</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45951</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>46042.59101851852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45414.57461805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>46042.61813657408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>46042.65511574074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>46043.39690972222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45392.84564814815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>46044.619375</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44552</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>46002.48991898148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>45469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44546.65107638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>46006.72208333333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>45764.5202662037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>45404.89270833333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>45048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44911.72277777778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44911.72387731481</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45000</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45013</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44685.40488425926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>45047</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>46051</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45204.51583333333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>45469.61435185185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45469.61974537037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45311.59244212963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>46013.46358796296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>46041.57229166666</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>46055</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45147.74729166667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>46014.49818287037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45576.70123842593</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>46014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44930.78516203703</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44973</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44454</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44915.77621527778</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>45614.48221064815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45614.48385416667</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>45614.48731481482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44915.77934027778</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>46021</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44911.72984953703</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>46059.55412037037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>46064.38011574074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44501.45686342593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44972.59789351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44766.54820601852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45594.82305555556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45469</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>45238.50130787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>45373.60101851852</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44865.91162037037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45070.91396990741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>45155</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>44900.43638888889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44454</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45225.86006944445</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45587</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45614.47771990741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45614.47966435185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45007</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45257</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44900.38658564815</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45485.59770833333</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45160.52923611111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45714.57979166666</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44973</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44973</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44302</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45744.32737268518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44907</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45758.57554398148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45684.61820601852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44262.82746527778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45334.52237268518</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44637.62238425926</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45684.62246527777</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45029</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45469</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45469</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44902</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>45265.8140625</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>44994.38266203704</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45707.32996527778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45608.30641203704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44866</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>44720</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45649</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45205.35052083333</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45181.79244212963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>44630.62163194444</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45329.66890046297</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45329</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45120</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45645.35217592592</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>45594.84241898148</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45630.46780092592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>45258.65349537037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>45041.47372685185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>45187.73872685185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>45495.89418981481</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45495</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45226.47097222223</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45090</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45183</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>45265.83193287037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45265.83298611111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>45533.47017361111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>45752.56149305555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44664</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45547.64564814815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45779.42712962963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>45779.69329861111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>45608.32445601852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>45473</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>45784.45744212963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>45530.33131944444</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>45790.54224537037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45531.33550925926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45740.89940972222</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>45790.54076388889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45711.37755787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>45519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45790.34878472222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45680.47359953704</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>45728.35657407407</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>45170.43162037037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45811.48039351852</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>45350.48810185185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44997</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45814.28092592592</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45534</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44637.65760416666</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45310</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45183</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45899.48846064815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45322</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44519</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>44265</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44783.45521990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44783.3771875</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44481.68056712963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44529</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44550.35746527778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44594.49887731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44630.61761574074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44392</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44615</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44615</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>44508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44462</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>44449.26315972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44433</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>44694</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44273</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44512</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>44512</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44889.64608796296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44300</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44431</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44512</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44783.45457175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44382</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44546.65344907407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44286</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44456</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44573</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44703.80895833333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>44613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44869.83858796296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44343.50334490741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>44526.74181712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>44546.65739583333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>44615</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44474.32905092592</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44623.2690162037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44686.59855324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44456</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44615.65287037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44615</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44522.40318287037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44383</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44456</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44881.56228009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44615</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44456</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44456</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44588.83569444445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44511</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44382</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44382</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44550.35263888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44550.35586805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44550.36349537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44817.71060185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44812</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44860</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44252.66797453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44392</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44622</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44719.42737268518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>45534</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>45425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44693.84070601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>45758.3678125</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44559.48967592593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>45483</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44900.43293981482</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44817.66766203703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45099.64145833333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>45103</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>45099.70915509259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>45572.58230324074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45643.81032407407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45266</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45267.2840162037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45721.59949074074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>45580.72895833333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44610</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45041</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45016.74270833333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45167.41329861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>45246</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>44860</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45314</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45420</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45526.92292824074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44442</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>45335</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45103</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>44476.55728009259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45687.645</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44636</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>45603.85575231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>45737.44548611111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>45146</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>45817.67849537037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>45818.41606481482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>45637.44023148148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>45884</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>45068</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>45786.6363425926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45811.56616898148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45204</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45821.745625</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45232</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>45443.69244212963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>45891</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>45096.5971412037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>45893.77959490741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>44453.59045138889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45897</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45637.43695601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>45672</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>45899.49072916667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>45784.46083333333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>45898.31863425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>44831.34840277778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>45623.84050925926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44720.43766203704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>45838.57253472223</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>45838.57292824074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45904.69476851852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>45904.6984375</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>45904.70483796296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45904.70866898148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>45904.71075231482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>45838.57185185186</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>45838.57230324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>45215.58049768519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>45212.61490740741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>45359</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>45548.44391203704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>45183</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45841.51304398148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>45911.47576388889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>45105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>45911.47094907407</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45280.59799768519</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>45915.31939814815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>45336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>45356.4206712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45841.83203703703</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>45779.42442129629</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45669</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>45258.70438657407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>45846.58006944445</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>45847</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45740</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45821.30648148148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45581.39112268519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45460</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45919.49084490741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45919.50083333333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45919.64902777778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>45855</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45855</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45103.66701388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45855</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>45918.50545138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44945.73666666666</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45556.4603125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45473</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45861.36361111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45861.36568287037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45854.47040509259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44817.70091435185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45925.33177083333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45867.36799768519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45669.80903935185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44783</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>45740</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>45930.60961805555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>45526</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>45930.59299768518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>45930.32436342593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>45930.60707175926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45930.60347222222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>45930.61263888889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>45930.57609953704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>45930.57943287037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45930.60043981481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45931.30692129629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45232.7922337963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>45098.50954861111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45875.41504629629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>45462.43706018518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>45880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>45614.48913194444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>45878.46230324074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44249</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45614.47459490741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45882</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45006.5583449074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45630.47453703704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44900.43491898148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44900.44082175926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45937.48201388889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45937.48306712963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45937.48375</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45937.48063657407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45672</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45608.27928240741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45665.81203703704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45672</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45240</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>45477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>45628.39364583333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>45951</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>45944</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>45576.71769675926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>45282</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>45474</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44300.63430555556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45121</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>45580.67303240741</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>45959.42767361111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44900.43143518519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45709.60859953704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45358</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>45358</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>45576.3666087963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45156.34189814814</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>45965.50280092593</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45965.66560185186</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>45539</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45967.49229166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44580</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>45967.44065972222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45967.44800925926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45967.39920138889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>45967.47391203704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>45967.40876157407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45967.42209490741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         <v>45967.38813657407</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>45967.50334490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45232</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45968.62002314815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>45105</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>45030.51758101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>45979.47041666666</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45981.57028935185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>45469.60047453704</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>45469.6058449074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45469.61131944445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>45469</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44529</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45362.30850694444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44973</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44806</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45596</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45352.79046296296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>45985.43508101852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>45603.85266203704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>45603.85405092593</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>44299</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44911.72645833333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45469</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45530.35858796296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>45443.6706712963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44630.63126157408</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>45530</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44910</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45594.83465277778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>45096</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45951</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>46042.59101851852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45414.57461805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>46042.61813657408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>46042.65511574074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>46043.39690972222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45392.84564814815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>46044.619375</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44552</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>46002.48991898148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>45469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44546.65107638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>46006.72208333333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>45764.5202662037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>45404.89270833333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>45048</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44911.72277777778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44911.72387731481</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45000</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45013</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44685.40488425926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>45047</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>46051</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45204.51583333333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>45469.61435185185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45469.61974537037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45311.59244212963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>46013.46358796296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>46041.57229166666</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>46055</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45147.74729166667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>46014.49818287037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45576.70123842593</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>46014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44930.78516203703</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44973</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44454</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44915.77621527778</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>45614.48221064815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45614.48385416667</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>45614.48731481482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44915.77934027778</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>46021</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44911.72984953703</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>46059.55412037037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>46064.38011574074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44501.45686342593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44972.59789351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44766.54820601852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45594.82305555556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45469</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>45238.50130787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>45373.60101851852</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44865.91162037037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45070.91396990741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>45155</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>44900.43638888889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44454</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45225.86006944445</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45587</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45614.47771990741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45614.47966435185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45007</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45257</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44900.38658564815</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45485.59770833333</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45160.52923611111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45714.57979166666</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44973</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44973</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44302</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45744.32737268518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45587</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44907</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45758.57554398148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45684.61820601852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44262.82746527778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45334.52237268518</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44637.62238425926</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45684.62246527777</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45029</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45469</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45469</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44902</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>45265.8140625</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>44994.38266203704</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45707.32996527778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45608.30641203704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44866</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>44720</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45649</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45205.35052083333</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45181.79244212963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>44630.62163194444</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45329.66890046297</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45329</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45120</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45645.35217592592</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>45594.84241898148</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45630.46780092592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>45258.65349537037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>45041.47372685185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>45187.73872685185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>45495.89418981481</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45495</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45226.47097222223</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45090</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45183</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>45265.83193287037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45265.83298611111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>45533.47017361111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>45752.56149305555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44664</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45547.64564814815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45779.42712962963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>45779.69329861111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>45608.32445601852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>45473</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>45784.45744212963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>45530.33131944444</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>45790.54224537037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45531.33550925926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45740.89940972222</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>45790.54076388889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45711.37755787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>45519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45790.34878472222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45680.47359953704</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>45728.35657407407</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>45170.43162037037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45811.48039351852</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>45350.48810185185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44997</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45814.28092592592</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>

--- a/Översikt TIDAHOLM.xlsx
+++ b/Översikt TIDAHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45534</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44637.65760416666</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45310</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45183</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44420</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45322</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45899.48846064815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44519</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>44481.68056712963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44265</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44431</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44573</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>44783.45521990741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44783.3771875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44529</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44550.35746527778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44594.49887731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44630.61761574074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44392</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44297</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44615</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44615</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>44508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44462</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>44449.26315972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44433</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>44694</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44273</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44512</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>44512</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44889.64608796296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44300</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44431</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44512</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44783.45457175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44382</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44546.65344907407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44286</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44456</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44573</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44703.80895833333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>44343.50334490741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44869.83858796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>44546.65739583333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>44526.74181712963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>44474.32905092592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44623.2690162037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44686.59855324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44456</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44615.65287037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44615</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44522.40318287037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44456</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44881.56228009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44615</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44456</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44456</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44588.83569444445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44382</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44511</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44382</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44550.35263888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44550.35586805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44550.36349537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44860</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44812</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44817.71060185185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44392</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44622</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45329.66890046297</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45329</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>45098.50954861111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>45335</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>45359</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>45204</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45265.8140625</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44900.43143518519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>45533.47017361111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>44945.73666666666</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>45474</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>45576.70123842593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>44958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>44973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>44529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>45334.52237268518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>45485.59770833333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45469</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>45603.85575231481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45420</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>45099.64145833333</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>45539</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44911.72984953703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>45483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44911.72645833333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>44630.62163194444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>45587</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>45614.48913194444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>45556.4603125</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>45350.48810185185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45170.43162037037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44997</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>45811.56616898148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>45672</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>44910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>45811.48039351852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45672</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>45814.28092592592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>45041</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>44900.43638888889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>45687.645</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45232</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45547.64564814815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45891</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44911.72277777778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44911.72387731481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45817.67849537037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45818.41606481482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45893.77959490741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44973</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44973</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45212.61490740741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44630.63126157408</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45614.47459490741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44930.78516203703</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45594.84241898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45821.745625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45898.31863425926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45786.6363425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45548.44391203704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45897</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45899.49072916667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45904.70866898148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>45904.71075231482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>45904.69476851852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>45226.47097222223</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>45904.6984375</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>45904.70483796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45096.5971412037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45684.62246527777</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45707.32996527778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>45784.46083333333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>45838.57230324074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>45838.57292824074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>45596</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>45838.57253472223</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>45280.59799768519</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>45838.57185185186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>45352.79046296296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>45603.85266203704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>45603.85405092593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45581.39112268519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>45477</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45614.48385416667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45841.83203703703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>45013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>45580.72895833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>45841.51304398148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45643.81032407407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>45614.47771990741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>45614.47966435185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44994.38266203704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>45846.58006944445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>45911.47576388889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44973</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>45911.47094907407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45258.70438657407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>45821.30648148148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>45669</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>45779.42442129629</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>45740</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>45847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>45000</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>45469.60047453704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>45414.57461805556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45096</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>45460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45594.83465277778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45855</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>45855</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>45855</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>45855</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>45473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45915.31939814815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>45854.47040509259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>45861.36568287037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>45861.36361111111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44302</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>45918.50545138889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>45919.49084490741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45608.27928240741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>45919.64902777778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>45867.36799768519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>45919.50083333333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>45630.47453703704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>45925.33177083333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45740</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>45930.60961805555</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45930.60347222222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>45930.59299768518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>45930.60707175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>45930.61263888889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>45930.60043981481</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>45930.32436342593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>45930.57609953704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>45930.57943287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>45931.30692129629</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>45534</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>45181.79244212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44783</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45709.60859953704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45878.46230324074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45875.41504629629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44817.70091435185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45443.6706712963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45884</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44580</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>45937.48063657407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>45937.48201388889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>45937.48306712963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45937.48375</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>45744.32737268518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44559.48967592593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44442</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>45070.91396990741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44865.91162037037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44900.43293981482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45167.41329861111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>44454</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45614.48221064815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>44903</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45944</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>45951</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45495.89418981481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>45495</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>45362.30850694444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>45103.66701388889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45103</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>45959.42767361111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44915.77934027778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45614.48731481482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>45392.84564814815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45965.50280092593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45266</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44831.34840277778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>45965.66560185186</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>45967.39920138889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45967.49229166667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>45967.44065972222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>45967.44800925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>45967.40876157407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>45967.42209490741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>45968.62002314815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45967.47391203704</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>45967.50334490741</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>45006.5583449074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>45967.38813657407</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>45576.3666087963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45373.60101851852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>45608.30641203704</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44546.65107638889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45105</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44476.55728009259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45120</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>45979.47041666666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45096</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>45443.69244212963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>45587</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>45981.57028935185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>45469.61435185185</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>45469.61974537037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>45155</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>45047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>45758.3678125</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>45985.43508101852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>45669.80903935185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>45469</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44817.66766203703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>45630.46780092592</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>45628.39364583333</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>45721.59949074074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>45267.2840162037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45030.51758101852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>45951</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>45204.51583333333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>46042.59101851852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>45594.82305555556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>46042.61813657408</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>45356.4206712963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>46042.65511574074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>46043.39690972222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>44262.82746527778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>45205.35052083333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>45232</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44610</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>45623.84050925926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>46002.48991898148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45187.73872685185</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>46044.619375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>46006.72208333333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>45090</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45637.44023148148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>45232.7922337963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>45147.74729166667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44693.84070601852</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45526.92292824074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44636</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45758.57554398148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45358</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45257</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>45764.5202662037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>45215.58049768519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44720.43766203704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44685.40488425926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>46014</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>46014.49818287037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>46041.57229166666</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>46013.46358796296</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>45752.56149305555</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>46055</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45714.57979166666</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45265.83193287037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45265.83298611111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>46059.55412037037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>45314</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44973</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>45246</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>45336</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>46021</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>46064.38011574074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>44806</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>45311.59244212963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>45238.50130787037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>45282</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45737.44548611111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>45526</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>45160.52923611111</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>45232</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44985</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44907</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44900.44082175926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45469.6058449074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45469.61131944445</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44501.45686342593</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44300.63430555556</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45665.81203703704</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>45240</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>45016.74270833333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>45099.70915509259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44719.42737268518</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45258.65349537037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44915.77621527778</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>46079.30844907407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>46080.61452546297</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>46080.61931712963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>46051</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>45462.43706018518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>44299</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>44453.59045138889</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44902</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>45469</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>45425</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>44900.38658564815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>45572.58230324074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45120</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45469</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>45530.35858796296</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45183</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45121</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45183</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23908,7 +23908,7 @@
         <v>45469</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>45225.86006944445</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44766.54820601852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>45469</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45404.89270833333</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>45103</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45156.34189814814</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44637.62238425926</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>44900.43491898148</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44972.59789351852</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>45576.71769675926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>45580.67303240741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45041.47372685185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>45358</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45649</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>45645.35217592592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>45672</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>45684.61820601852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>45637.43695601852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>45779.42712962963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45779.69329861111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45784.45744212963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>45608.32445601852</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45473</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>45530.33131944444</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45790.34878472222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45790.54076388889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>45790.54224537037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>45519</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45531.33550925926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>45740.89940972222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>45711.37755787037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45680.47359953704</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>45728.35657407407</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
